--- a/biology/Zoologie/Pachycondyla_globiventris/Pachycondyla_globiventris.xlsx
+++ b/biology/Zoologie/Pachycondyla_globiventris/Pachycondyla_globiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euponera globiventris
 Pachycondyla globiventris est une espèce fossile d'insectes hyménoptères fourmis de la sous-famille des Ponerinae dans la tribu des Ponerini, dans le genre Pachycondyla.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pachycondyla globiventris est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le nom Euponera globiventris[1],[2]. 
-Fossiles
-Le spécimen holotype R 609 ♀ vient de la collection Mieg, du musée de Bâle. Ces insectes viennent des terrains sannoisiens de la localité de Kleinkembs de la commune d'Efringen-Kirchen en pays de Bade, en Allemagne, juste à côté de la frontière franco-allemande du Rhin, au sud-est de l'Alsace. Cet holotype a trois échantillons cotypes R609, 682, 558 de la même provenance.
-Étymologie
-L'épithète spécifique globiventris signifie en latin ?« ventre globe »?.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pachycondyla globiventris est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) sous le nom Euponera globiventris,. 
 </t>
         </is>
       </c>
@@ -544,20 +554,171 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype R 609 ♀ vient de la collection Mieg, du musée de Bâle. Ces insectes viennent des terrains sannoisiens de la localité de Kleinkembs de la commune d'Efringen-Kirchen en pays de Bade, en Allemagne, juste à côté de la frontière franco-allemande du Rhin, au sud-est de l'Alsace. Cet holotype a trois échantillons cotypes R609, 682, 558 de la même provenance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique globiventris signifie en latin ?« ventre globe »?.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[1] : L'holotype femelle est un 
-« insecte de couleur brunâtre, à ailes transparentes. »[1].
-« Tête subquadrangulaire à bords arrondis, mandibules proéminentes, yeux petits, placés vers le milieu de la tête; antennes coudées, scape atteignant à peine le bord postérieur de la tête. Thorax ovale, pétiole court. Abdomen ovoïde, légèrement étranglé après le premier segment. Ailes transparentes. Patte courtes. »[1].
-Dimensions
-La longueur totale est de 6 mm[1]. 
-Affinités
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald de 1937 : L'holotype femelle est un 
+« insecte de couleur brunâtre, à ailes transparentes. ».
+« Tête subquadrangulaire à bords arrondis, mandibules proéminentes, yeux petits, placés vers le milieu de la tête; antennes coudées, scape atteignant à peine le bord postérieur de la tête. Thorax ovale, pétiole court. Abdomen ovoïde, légèrement étranglé après le premier segment. Ailes transparentes. Patte courtes. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 6 mm. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pachycondyla_globiventris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Est voisin des espèces d'Euponera décrites plus bas ; mais en diffère par la teinte des ailes qui sont transparentes ici ; la taille aussi est inférieure. Il est néanmoions possible qu'il s'agisse d'Euponera calcarea.
-Trois échantillons : R609, 682, 558. »[1].
+Trois échantillons : R609, 682, 558. ».
 </t>
         </is>
       </c>
